--- a/Documentation/Presentation/Matrix.xlsx
+++ b/Documentation/Presentation/Matrix.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atray\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atray\OneDrive\Documents\GitHub\Visualization_2019-20\Documentation\Presentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="96">
   <si>
     <t>Measures/Graphs</t>
   </si>
@@ -312,28 +313,13 @@
   </si>
   <si>
     <t>Column11</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>Column12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,16 +334,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor theme="9" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -365,11 +377,122 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -378,6 +501,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -609,7 +756,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$R$5:$T$5</c:f>
+              <c:f>Sheet1!$N$5:$P$5</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -626,7 +773,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$6:$T$6</c:f>
+              <c:f>Sheet1!$N$6:$P$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1398,13 +1545,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
@@ -1432,9 +1579,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Matrix" displayName="Matrix" ref="A1:K30" totalsRowShown="0">
-  <autoFilter ref="A1:K30"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Matrix" displayName="Matrix" ref="A1:G30" totalsRowShown="0">
+  <autoFilter ref="A1:G30"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="Column1" dataDxfId="0"/>
     <tableColumn id="2" name="Column2"/>
     <tableColumn id="3" name="Column3"/>
@@ -1442,10 +1589,6 @@
     <tableColumn id="5" name="Column5"/>
     <tableColumn id="6" name="Column6"/>
     <tableColumn id="7" name="Column7"/>
-    <tableColumn id="8" name="Column8"/>
-    <tableColumn id="9" name="Column9"/>
-    <tableColumn id="10" name="Column10"/>
-    <tableColumn id="11" name="Column11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1714,10 +1857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y33"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1730,7 +1873,7 @@
     <col min="9" max="11" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>85</v>
       </c>
@@ -1752,20 +1895,8 @@
       <c r="G1" t="s">
         <v>91</v>
       </c>
-      <c r="H1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1784,20 +1915,8 @@
       <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1805,7 +1924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>2</v>
@@ -1825,20 +1944,8 @@
       <c r="G4">
         <v>20.927</v>
       </c>
-      <c r="H4">
-        <v>7.6</v>
-      </c>
-      <c r="I4">
-        <v>10.986000000000001</v>
-      </c>
-      <c r="J4">
-        <v>7.181</v>
-      </c>
-      <c r="K4">
-        <v>12.936</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>3</v>
@@ -1858,38 +1965,26 @@
       <c r="G5">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="H5">
-        <v>0.185</v>
-      </c>
-      <c r="I5">
-        <v>9.0000000000000006E-5</v>
-      </c>
-      <c r="J5">
-        <v>0.57199999999999995</v>
-      </c>
-      <c r="K5">
-        <v>9.0000000000000006E-5</v>
-      </c>
-      <c r="R5" t="s">
+      <c r="N5" t="s">
         <v>21</v>
       </c>
+      <c r="O5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" t="s">
+        <v>23</v>
+      </c>
       <c r="S5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T5" t="s">
         <v>22</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>23</v>
       </c>
-      <c r="W5" t="s">
-        <v>21</v>
-      </c>
-      <c r="X5" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
         <v>4</v>
@@ -1909,38 +2004,26 @@
       <c r="G6" t="s">
         <v>28</v>
       </c>
-      <c r="H6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" t="s">
-        <v>32</v>
-      </c>
-      <c r="R6">
+      <c r="N6">
         <v>6.72</v>
       </c>
+      <c r="O6">
+        <v>69.58</v>
+      </c>
+      <c r="P6">
+        <v>23.69</v>
+      </c>
       <c r="S6">
+        <v>6.72</v>
+      </c>
+      <c r="T6">
         <v>69.58</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>23.69</v>
       </c>
-      <c r="W6">
-        <v>6.72</v>
-      </c>
-      <c r="X6">
-        <v>69.58</v>
-      </c>
-      <c r="Y6">
-        <v>23.69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1948,7 +2031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
         <v>2</v>
@@ -1968,20 +2051,8 @@
       <c r="G8">
         <v>7.9009999999999998</v>
       </c>
-      <c r="H8">
-        <v>8.6370000000000005</v>
-      </c>
-      <c r="I8">
-        <v>17.285</v>
-      </c>
-      <c r="J8">
-        <v>52.984000000000002</v>
-      </c>
-      <c r="K8">
-        <v>26.404</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
         <v>3</v>
@@ -2001,20 +2072,8 @@
       <c r="G9">
         <v>0.96299999999999997</v>
       </c>
-      <c r="H9">
-        <v>0.7</v>
-      </c>
-      <c r="I9">
-        <v>0.39800000000000002</v>
-      </c>
-      <c r="J9">
-        <v>0.125</v>
-      </c>
-      <c r="K9">
-        <v>0.40200000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" t="s">
         <v>4</v>
@@ -2034,20 +2093,8 @@
       <c r="G10" t="s">
         <v>37</v>
       </c>
-      <c r="H10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -2055,7 +2102,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
         <v>2</v>
@@ -2075,20 +2122,8 @@
       <c r="G12" s="3">
         <v>4.4048410000000003E-4</v>
       </c>
-      <c r="H12" s="3">
-        <v>7.0362689999999996E-5</v>
-      </c>
-      <c r="I12" s="3">
-        <v>4.609822E-5</v>
-      </c>
-      <c r="J12" s="3">
-        <v>2.603231E-4</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1.1131219999999999E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
         <v>3</v>
@@ -2108,20 +2143,8 @@
       <c r="G13">
         <v>9.8999999999999994E-5</v>
       </c>
-      <c r="H13">
-        <v>1.6899999999999998E-2</v>
-      </c>
-      <c r="I13">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="J13">
-        <v>9.8999999999999994E-5</v>
-      </c>
-      <c r="K13">
-        <v>9.8999999999999994E-5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
         <v>4</v>
@@ -2141,20 +2164,8 @@
       <c r="G14" t="s">
         <v>46</v>
       </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
-        <v>48</v>
-      </c>
-      <c r="J14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -2162,7 +2173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" t="s">
         <v>2</v>
@@ -2182,20 +2193,8 @@
       <c r="G16">
         <v>0.106</v>
       </c>
-      <c r="H16">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="I16">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="J16">
-        <v>0.125</v>
-      </c>
-      <c r="K16">
-        <v>0.224</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" t="s">
         <v>3</v>
@@ -2215,20 +2214,8 @@
       <c r="G17">
         <v>1.6E-2</v>
       </c>
-      <c r="H17">
-        <v>0.45300000000000001</v>
-      </c>
-      <c r="I17">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="J17">
-        <v>9.8999999999999994E-5</v>
-      </c>
-      <c r="K17">
-        <v>9.8999999999999994E-5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" t="s">
         <v>4</v>
@@ -2248,20 +2235,8 @@
       <c r="G18" t="s">
         <v>55</v>
       </c>
-      <c r="H18" t="s">
-        <v>56</v>
-      </c>
-      <c r="I18" t="s">
-        <v>57</v>
-      </c>
-      <c r="J18" t="s">
-        <v>58</v>
-      </c>
-      <c r="K18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -2269,7 +2244,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" t="s">
         <v>2</v>
@@ -2289,20 +2264,8 @@
       <c r="G20">
         <v>2.64E-3</v>
       </c>
-      <c r="H20">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="I20">
-        <v>1.1100000000000001E-3</v>
-      </c>
-      <c r="J20">
-        <v>2.47E-3</v>
-      </c>
-      <c r="K20">
-        <v>5.9800000000000001E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" t="s">
         <v>3</v>
@@ -2322,20 +2285,8 @@
       <c r="G21">
         <v>1.9000000000000001E-4</v>
       </c>
-      <c r="H21">
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="I21">
-        <v>0.57399999999999995</v>
-      </c>
-      <c r="J21">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="K21">
-        <v>0.90100000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" t="s">
         <v>4</v>
@@ -2355,20 +2306,8 @@
       <c r="G22" t="s">
         <v>64</v>
       </c>
-      <c r="H22" t="s">
-        <v>29</v>
-      </c>
-      <c r="I22" t="s">
-        <v>65</v>
-      </c>
-      <c r="J22" t="s">
-        <v>31</v>
-      </c>
-      <c r="K22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -2376,7 +2315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" t="s">
         <v>2</v>
@@ -2396,20 +2335,8 @@
       <c r="G24">
         <v>12.568</v>
       </c>
-      <c r="H24">
-        <v>2.3359999999999999</v>
-      </c>
-      <c r="I24">
-        <v>2.6349999999999998</v>
-      </c>
-      <c r="J24">
-        <v>7.766</v>
-      </c>
-      <c r="K24">
-        <v>3.5619999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" t="s">
         <v>3</v>
@@ -2429,20 +2356,8 @@
       <c r="G25">
         <v>9.8999999999999994E-5</v>
       </c>
-      <c r="H25">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="I25">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="J25">
-        <v>9.8999999999999994E-5</v>
-      </c>
-      <c r="K25">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" t="s">
         <v>4</v>
@@ -2462,20 +2377,8 @@
       <c r="G26" t="s">
         <v>71</v>
       </c>
-      <c r="H26" t="s">
-        <v>72</v>
-      </c>
-      <c r="I26" t="s">
-        <v>73</v>
-      </c>
-      <c r="J26" t="s">
-        <v>74</v>
-      </c>
-      <c r="K26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>20</v>
       </c>
@@ -2483,7 +2386,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" t="s">
         <v>2</v>
@@ -2503,20 +2406,8 @@
       <c r="G28">
         <v>10.462999999999999</v>
       </c>
-      <c r="H28">
-        <v>2.9140000000000001</v>
-      </c>
-      <c r="I28">
-        <v>5.3540000000000001</v>
-      </c>
-      <c r="J28">
-        <v>3.3250000000000002</v>
-      </c>
-      <c r="K28">
-        <v>6.194</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" t="s">
         <v>3</v>
@@ -2536,20 +2427,8 @@
       <c r="G29">
         <v>5.9000000000000003E-4</v>
       </c>
-      <c r="H29">
-        <v>0.72099999999999997</v>
-      </c>
-      <c r="I29">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="J29">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="K29">
-        <v>4.8999999999999998E-4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" t="s">
         <v>4</v>
@@ -2569,23 +2448,11 @@
       <c r="G30" t="s">
         <v>80</v>
       </c>
-      <c r="H30" t="s">
-        <v>81</v>
-      </c>
-      <c r="I30" t="s">
-        <v>82</v>
-      </c>
-      <c r="J30" t="s">
-        <v>83</v>
-      </c>
-      <c r="K30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
@@ -2599,4 +2466,600 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="29" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11">
+        <v>6.1950000000000003</v>
+      </c>
+      <c r="D4" s="7">
+        <v>7.6</v>
+      </c>
+      <c r="E4" s="7">
+        <v>10.986000000000001</v>
+      </c>
+      <c r="F4" s="7">
+        <v>7.181</v>
+      </c>
+      <c r="G4" s="16">
+        <v>12.936</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.185</v>
+      </c>
+      <c r="E5" s="9">
+        <v>9.0000000000000006E-5</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="G5" s="17">
+        <v>9.0000000000000006E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="7">
+        <v>12.515000000000001</v>
+      </c>
+      <c r="D8" s="7">
+        <v>8.6370000000000005</v>
+      </c>
+      <c r="E8" s="7">
+        <v>17.285</v>
+      </c>
+      <c r="F8" s="7">
+        <v>52.984000000000002</v>
+      </c>
+      <c r="G8" s="16">
+        <v>26.404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.125</v>
+      </c>
+      <c r="G9" s="17">
+        <v>0.40200000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="12">
+        <v>5.922989E-5</v>
+      </c>
+      <c r="D12" s="12">
+        <v>7.0362689999999996E-5</v>
+      </c>
+      <c r="E12" s="12">
+        <v>4.609822E-5</v>
+      </c>
+      <c r="F12" s="12">
+        <v>2.603231E-4</v>
+      </c>
+      <c r="G12" s="18">
+        <v>1.1131219999999999E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="D13" s="9">
+        <v>1.6899999999999998E-2</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="F13" s="9">
+        <v>9.8999999999999994E-5</v>
+      </c>
+      <c r="G13" s="17">
+        <v>9.8999999999999994E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="7">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="D16" s="7">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="E16" s="7">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="G16" s="16">
+        <v>0.224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="9">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="E17" s="9">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="F17" s="9">
+        <v>9.8999999999999994E-5</v>
+      </c>
+      <c r="G17" s="17">
+        <v>9.8999999999999994E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="17"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="10"/>
+      <c r="B20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="7">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1.1100000000000001E-3</v>
+      </c>
+      <c r="F20" s="7">
+        <v>2.47E-3</v>
+      </c>
+      <c r="G20" s="16">
+        <v>5.9800000000000001E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="F21" s="9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G21" s="17">
+        <v>0.90100000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="10"/>
+      <c r="B22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="17"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="10"/>
+      <c r="B24" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="7">
+        <v>4.2140000000000004</v>
+      </c>
+      <c r="D24" s="7">
+        <v>2.3359999999999999</v>
+      </c>
+      <c r="E24" s="7">
+        <v>2.6349999999999998</v>
+      </c>
+      <c r="F24" s="7">
+        <v>7.766</v>
+      </c>
+      <c r="G24" s="16">
+        <v>3.5619999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="E25" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="F25" s="9">
+        <v>9.8999999999999994E-5</v>
+      </c>
+      <c r="G25" s="17">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="10"/>
+      <c r="B26" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="17"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="10"/>
+      <c r="B28" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="7">
+        <v>2.8620000000000001</v>
+      </c>
+      <c r="D28" s="7">
+        <v>2.9140000000000001</v>
+      </c>
+      <c r="E28" s="7">
+        <v>5.3540000000000001</v>
+      </c>
+      <c r="F28" s="7">
+        <v>3.3250000000000002</v>
+      </c>
+      <c r="G28" s="16">
+        <v>6.194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="9">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="D29" s="9">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="E29" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F29" s="9">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G29" s="17">
+        <v>4.8999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="13"/>
+      <c r="B30" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documentation/Presentation/Matrix.xlsx
+++ b/Documentation/Presentation/Matrix.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="100">
   <si>
     <t>Measures/Graphs</t>
   </si>
@@ -313,6 +313,18 @@
   </si>
   <si>
     <t>Column11</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -561,31 +573,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Template-G1</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -600,11 +587,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -631,16 +618,12 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -650,16 +633,12 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -669,94 +648,17 @@
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
           </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:pattFill prst="pct75">
-                <a:fgClr>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$N$5:$P$5</c:f>
+              <c:f>Sheet1!$J$5:$L$5</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -773,30 +675,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$6:$P$6</c:f>
+              <c:f>Sheet1!$J$6:$L$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6.72</c:v>
+                  <c:v>39.81</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>69.58</c:v>
+                  <c:v>31.82</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.69</c:v>
+                  <c:v>28.36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
+          <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
@@ -811,16 +712,11 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="39000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -833,9 +729,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -852,30 +748,236 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="39000">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="lt1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="25000"/>
-          <a:lumOff val="75000"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$I$5:$K$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>perc.loc</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>perc.size</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>perc.shape</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$I$6:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10.34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55.29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.369999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -940,191 +1042,178 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
         <a:lumMod val="75000"/>
         <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="39000">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="dk1">
             <a:lumMod val="25000"/>
             <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="pct75">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:spPr>
-    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="pct75">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:spPr>
-    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="20000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="20000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -1134,37 +1223,37 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="85000"/>
-          </a:schemeClr>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -1172,7 +1261,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1188,265 +1277,233 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-          <a:alpha val="39000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -1456,12 +1513,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1470,13 +1527,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1485,31 +1543,551 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
         <a:lumMod val="75000"/>
         <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1518,16 +2096,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1535,8 +2108,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1545,23 +2124,56 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1857,10 +2469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1869,11 +2481,11 @@
     <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="28" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>85</v>
       </c>
@@ -1896,7 +2508,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1916,7 +2528,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1924,7 +2536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>2</v>
@@ -1945,7 +2557,7 @@
         <v>20.927</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>3</v>
@@ -1965,26 +2577,17 @@
       <c r="G5">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="N5" t="s">
+      <c r="J5" t="s">
         <v>21</v>
       </c>
-      <c r="O5" t="s">
+      <c r="K5" t="s">
         <v>22</v>
       </c>
-      <c r="P5" t="s">
+      <c r="L5" t="s">
         <v>23</v>
       </c>
-      <c r="S5" t="s">
-        <v>21</v>
-      </c>
-      <c r="T5" t="s">
-        <v>22</v>
-      </c>
-      <c r="U5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
         <v>4</v>
@@ -2004,26 +2607,17 @@
       <c r="G6" t="s">
         <v>28</v>
       </c>
-      <c r="N6">
-        <v>6.72</v>
-      </c>
-      <c r="O6">
-        <v>69.58</v>
-      </c>
-      <c r="P6">
-        <v>23.69</v>
-      </c>
-      <c r="S6">
-        <v>6.72</v>
-      </c>
-      <c r="T6">
-        <v>69.58</v>
-      </c>
-      <c r="U6">
-        <v>23.69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <v>39.81</v>
+      </c>
+      <c r="K6">
+        <v>31.82</v>
+      </c>
+      <c r="L6">
+        <v>28.36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -2031,7 +2625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
         <v>2</v>
@@ -2052,7 +2646,7 @@
         <v>7.9009999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
         <v>3</v>
@@ -2073,7 +2667,7 @@
         <v>0.96299999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" t="s">
         <v>4</v>
@@ -2094,7 +2688,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -2102,7 +2696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
         <v>2</v>
@@ -2123,7 +2717,7 @@
         <v>4.4048410000000003E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
         <v>3</v>
@@ -2144,7 +2738,7 @@
         <v>9.8999999999999994E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
         <v>4</v>
@@ -2165,7 +2759,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -2173,7 +2767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" t="s">
         <v>2</v>
@@ -2470,10 +3064,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2483,7 +3077,7 @@
     <col min="3" max="7" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>85</v>
       </c>
@@ -2506,7 +3100,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -2527,7 +3121,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -2540,7 +3134,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="17"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="7" t="s">
         <v>2</v>
@@ -2561,7 +3155,7 @@
         <v>12.936</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
         <v>3</v>
@@ -2581,8 +3175,17 @@
       <c r="G5" s="17">
         <v>9.0000000000000006E-5</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="7" t="s">
         <v>4</v>
@@ -2602,8 +3205,17 @@
       <c r="G6" s="16" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <v>10.34</v>
+      </c>
+      <c r="J6">
+        <v>55.29</v>
+      </c>
+      <c r="K6">
+        <v>34.369999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
@@ -2616,7 +3228,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="7" t="s">
         <v>2</v>
@@ -2637,7 +3249,7 @@
         <v>26.404</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="9" t="s">
         <v>3</v>
@@ -2658,7 +3270,7 @@
         <v>0.40200000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="7" t="s">
         <v>4</v>
@@ -2679,7 +3291,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>5</v>
       </c>
@@ -2692,7 +3304,7 @@
       <c r="F11" s="9"/>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="7" t="s">
         <v>2</v>
@@ -2713,7 +3325,7 @@
         <v>1.1131219999999999E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="9" t="s">
         <v>3</v>
@@ -2734,7 +3346,7 @@
         <v>9.8999999999999994E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="7" t="s">
         <v>4</v>
@@ -2755,7 +3367,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>6</v>
       </c>
@@ -2768,7 +3380,7 @@
       <c r="F15" s="9"/>
       <c r="G15" s="17"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="7" t="s">
         <v>2</v>
@@ -3061,5 +3673,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>